--- a/StructureDefinition-sm-address.xlsx
+++ b/StructureDefinition-sm-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T09:27:50+00:00</t>
+    <t>2024-11-11T08:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sm-address.xlsx
+++ b/StructureDefinition-sm-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-11T08:35:31+00:00</t>
+    <t>2024-11-11T09:31:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
